--- a/src/main/resources/template/excel/export/SupplierSellReport.xlsx
+++ b/src/main/resources/template/excel/export/SupplierSellReport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
-    <t>供应商编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商名称</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -190,10 +186,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(J3:J3+0)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>$[SUMPRODUCT(I3:I3+0)]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -210,11 +202,22 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>$[SUMPRODUCT(D3:D3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商编码</t>
+    <rPh sb="3" eb="4">
+      <t>bian'm</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>$[SUMPRODUCT(E3:E3+0)]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(D3:D3+0)]</t>
+    <t>$[SUMPRODUCT(I3:I3+0)/SUMPRODUCT(E3:E3+0)]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -222,8 +225,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -333,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,12 +353,16 @@
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:K4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -748,119 +756,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
